--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/word_level_predictions_17.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6638,626 +6638,626 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>5</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>5</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>5</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>14</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>5</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>15</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>5</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>16</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>5</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>17</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>5</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>18</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>5</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>19</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>5</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>20</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9342,210 +9342,210 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>6</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>32</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>6</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>33</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>6</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>34</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>6</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>35</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/word_level_predictions_17.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>15</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6638,626 +6638,626 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9342,210 +9342,210 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
